--- a/March'21/18.03.2021/Daily Sales Info..xlsx
+++ b/March'21/18.03.2021/Daily Sales Info..xlsx
@@ -468,7 +468,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,6 +1238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -29020,8 +29029,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29560,7 +29569,7 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="105">
         <v>18942</v>
       </c>
       <c r="E12" s="30"/>
